--- a/pop.xlsx
+++ b/pop.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thais Pereira\Documents\obitos_transito\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C63745-C0AA-4BF5-9173-2168078BDDCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF12081B-1A7C-4A13-A1F5-153DD547E8DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3975" windowWidth="29040" windowHeight="15720" xr2:uid="{745188C5-D95B-439F-9596-57F97556D694}"/>
+    <workbookView xWindow="-18780" yWindow="-1575" windowWidth="17280" windowHeight="12000" xr2:uid="{745188C5-D95B-439F-9596-57F97556D694}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$A$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$C$97</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="104">
   <si>
     <t>Sapopemba</t>
   </si>
@@ -333,13 +333,31 @@
   </si>
   <si>
     <t>Vila Curuca</t>
+  </si>
+  <si>
+    <t>regiao</t>
+  </si>
+  <si>
+    <t>Sul</t>
+  </si>
+  <si>
+    <t>Leste</t>
+  </si>
+  <si>
+    <t>Oeste</t>
+  </si>
+  <si>
+    <t>Centro</t>
+  </si>
+  <si>
+    <t>Norte</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,6 +386,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -390,7 +416,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -401,6 +427,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -736,11 +763,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09BE5E47-5902-4FF5-A4F1-5B2614C7C56A}">
-  <dimension ref="A1:B97"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -748,783 +773,1075 @@
     <col min="2" max="2" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B2" s="3">
         <v>384873</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B3" s="3">
         <v>311432</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B4" s="3">
         <v>270767</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="3">
         <v>266715</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B6" s="3">
         <v>261436</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B7" s="3">
         <v>259377</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="3">
         <v>249218</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B9" s="3">
         <v>243273</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="3">
         <v>236162</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="3">
         <v>214982</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B12" s="3">
         <v>211617</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="3">
         <v>210960</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="3">
         <v>205295</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B15" s="3">
         <v>196563</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="3">
         <v>194177</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="3">
         <v>182459</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="3">
         <v>179724</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="3">
         <v>168669</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="3">
         <v>164391</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="3">
         <v>163586</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B22" s="3">
         <v>155682</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="3">
         <v>153687</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="3">
         <v>149700</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B25" s="3">
         <v>148145</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="3">
         <v>143366</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B27" s="3">
         <v>141172</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B28" s="3">
         <v>140673</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B29" s="3">
         <v>138038</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B30" s="3">
         <v>137240</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B31" s="3">
         <v>136660</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B32" s="3">
         <v>134189</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B33" s="3">
         <v>132452</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B34" s="3">
         <v>131631</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B35" s="3">
         <v>129409</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B36" s="3">
         <v>128469</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B37" s="3">
         <v>128243</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B38" s="3">
         <v>127286</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B39" s="3">
         <v>123748</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B40" s="3">
         <v>117738</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B41" s="3">
         <v>116271</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B42" s="3">
         <v>115925</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B43" s="3">
         <v>115689</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B44" s="3">
         <v>114939</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B45" s="3">
         <v>112333</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B46" s="3">
         <v>109316</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B47" s="3">
         <v>108543</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B48" s="3">
         <v>105690</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B49" s="3">
         <v>103665</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B50" s="3">
         <v>103558</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B51" s="3">
         <v>103171</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B52" s="3">
         <v>102391</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B53" s="3">
         <v>101452</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B54" s="3">
         <v>99559</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B55" s="3">
         <v>98601</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B56" s="3">
         <v>95575</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B57" s="3">
         <v>92186</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B58" s="3">
         <v>89881</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B59" s="3">
         <v>89574</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B60" s="3">
         <v>88884</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B61" s="3">
         <v>87716</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B62" s="3">
         <v>87329</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C62" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B63" s="3">
         <v>85788</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B64" s="3">
         <v>85349</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C64" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B65" s="3">
         <v>84397</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C65" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B66" s="3">
         <v>82373</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B67" s="3">
         <v>81899</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B68" s="3">
         <v>81859</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B69" s="3">
         <v>81011</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C69" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B70" s="3">
         <v>80972</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B71" s="3">
         <v>80880</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B72" s="3">
         <v>80536</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C72" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B73" s="3">
         <v>75533</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B74" s="3">
         <v>75360</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B75" s="3">
         <v>74677</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C75" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B76" s="3">
         <v>71034</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C76" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B77" s="3">
         <v>66056</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B78" s="3">
         <v>65145</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B79" s="3">
         <v>60825</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B80" s="3">
         <v>60024</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C80" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B81" s="3">
         <v>55785</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C81" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B82" s="3">
         <v>55382</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C82" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B83" s="3">
         <v>53144</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C83" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B84" s="3">
         <v>52587</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C84" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B85" s="3">
         <v>51715</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C85" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B86" s="3">
         <v>46875</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C86" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B87" s="3">
         <v>45163</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C87" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B88" s="3">
         <v>43690</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C88" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B89" s="3">
         <v>38750</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C89" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B90" s="3">
         <v>38051</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C90" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B91" s="3">
         <v>37359</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C91" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B92" s="3">
         <v>33520</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C92" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B93" s="3">
         <v>33436</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C93" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B94" s="3">
         <v>24730</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C94" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B95" s="3">
         <v>23832</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C95" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B96" s="3">
         <v>17359</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C96" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B97" s="3">
         <v>11451</v>
       </c>
+      <c r="C97" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C97" xr:uid="{09BE5E47-5902-4FF5-A4F1-5B2614C7C56A}"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" tooltip="Grajaú (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/Graja%C3%BA_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{57C58824-61BA-44D8-AAA0-A69C305858EB}"/>
     <hyperlink ref="A3" r:id="rId2" tooltip="Jardim Ângela" display="https://pt.wikipedia.org/wiki/Jardim_%C3%82ngela" xr:uid="{28B99854-A4B3-4BA7-AB2A-E939907AC5E5}"/>

--- a/pop.xlsx
+++ b/pop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thais Pereira\Documents\obitos_transito\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF12081B-1A7C-4A13-A1F5-153DD547E8DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DC1F3B1-772C-4C63-AD7E-47D49264D344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18780" yWindow="-1575" windowWidth="17280" windowHeight="12000" xr2:uid="{745188C5-D95B-439F-9596-57F97556D694}"/>
+    <workbookView xWindow="-28920" yWindow="-3975" windowWidth="29040" windowHeight="15720" xr2:uid="{745188C5-D95B-439F-9596-57F97556D694}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -765,7 +765,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09BE5E47-5902-4FF5-A4F1-5B2614C7C56A}">
   <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -806,7 +808,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>73</v>
       </c>
@@ -817,7 +819,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -839,7 +841,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>84</v>
       </c>
@@ -850,7 +852,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -861,7 +863,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>91</v>
       </c>
@@ -896,13 +898,13 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B12" s="3">
-        <v>211617</v>
+        <v>33520</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -929,13 +931,13 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B15" s="3">
-        <v>196563</v>
+        <v>23832</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -1050,21 +1052,21 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="B26" s="3">
-        <v>143366</v>
+        <v>141172</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B27" s="3">
-        <v>141172</v>
+        <v>81011</v>
       </c>
       <c r="C27" t="s">
         <v>100</v>
@@ -1281,13 +1283,13 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B47" s="3">
-        <v>108543</v>
+        <v>80880</v>
       </c>
       <c r="C47" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -1435,24 +1437,24 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="B61" s="3">
-        <v>87716</v>
+        <v>74677</v>
       </c>
       <c r="C61" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="B62" s="3">
-        <v>87329</v>
+        <v>60825</v>
       </c>
       <c r="C62" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -1468,13 +1470,13 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="B64" s="3">
-        <v>85349</v>
+        <v>53144</v>
       </c>
       <c r="C64" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -1512,21 +1514,21 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="B68" s="3">
-        <v>81859</v>
+        <v>55785</v>
       </c>
       <c r="C68" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="B69" s="3">
-        <v>81011</v>
+        <v>17359</v>
       </c>
       <c r="C69" t="s">
         <v>100</v>
@@ -1545,10 +1547,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="B71" s="3">
-        <v>80880</v>
+        <v>38750</v>
       </c>
       <c r="C71" t="s">
         <v>100</v>
@@ -1578,10 +1580,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B74" s="3">
-        <v>75360</v>
+        <v>143366</v>
       </c>
       <c r="C74" t="s">
         <v>103</v>
@@ -1589,24 +1591,24 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="B75" s="3">
-        <v>74677</v>
+        <v>211617</v>
       </c>
       <c r="C75" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B76" s="3">
-        <v>71034</v>
+        <v>108543</v>
       </c>
       <c r="C76" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -1622,24 +1624,24 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="B78" s="3">
-        <v>65145</v>
+        <v>196563</v>
       </c>
       <c r="C78" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="B79" s="3">
-        <v>60825</v>
+        <v>75360</v>
       </c>
       <c r="C79" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -1655,35 +1657,35 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="B81" s="3">
-        <v>55785</v>
+        <v>87716</v>
       </c>
       <c r="C81" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="B82" s="3">
-        <v>55382</v>
+        <v>87329</v>
       </c>
       <c r="C82" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="B83" s="3">
-        <v>53144</v>
+        <v>81859</v>
       </c>
       <c r="C83" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -1699,10 +1701,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="B85" s="3">
-        <v>51715</v>
+        <v>65145</v>
       </c>
       <c r="C85" t="s">
         <v>101</v>
@@ -1710,10 +1712,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="B86" s="3">
-        <v>46875</v>
+        <v>55382</v>
       </c>
       <c r="C86" t="s">
         <v>101</v>
@@ -1732,10 +1734,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B88" s="3">
-        <v>43690</v>
+        <v>46875</v>
       </c>
       <c r="C88" t="s">
         <v>101</v>
@@ -1743,24 +1745,24 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B89" s="3">
-        <v>38750</v>
+        <v>43690</v>
       </c>
       <c r="C89" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="B90" s="3">
-        <v>38051</v>
+        <v>51715</v>
       </c>
       <c r="C90" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -1776,24 +1778,24 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B92" s="3">
-        <v>33520</v>
+        <v>33436</v>
       </c>
       <c r="C92" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B93" s="3">
-        <v>33436</v>
+        <v>71034</v>
       </c>
       <c r="C93" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -1809,24 +1811,24 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B95" s="3">
-        <v>23832</v>
+        <v>38051</v>
       </c>
       <c r="C95" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B96" s="3">
-        <v>17359</v>
+        <v>85349</v>
       </c>
       <c r="C96" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -1841,7 +1843,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C97" xr:uid="{09BE5E47-5902-4FF5-A4F1-5B2614C7C56A}"/>
+  <autoFilter ref="A1:C97" xr:uid="{09BE5E47-5902-4FF5-A4F1-5B2614C7C56A}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:C95">
+      <sortCondition ref="C1:C97"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" tooltip="Grajaú (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/Graja%C3%BA_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{57C58824-61BA-44D8-AAA0-A69C305858EB}"/>
     <hyperlink ref="A3" r:id="rId2" tooltip="Jardim Ângela" display="https://pt.wikipedia.org/wiki/Jardim_%C3%82ngela" xr:uid="{28B99854-A4B3-4BA7-AB2A-E939907AC5E5}"/>
@@ -1853,10 +1859,10 @@
     <hyperlink ref="A9" r:id="rId8" tooltip="Brasilândia (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/Brasil%C3%A2ndia_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{AF55F061-8958-47DD-AB26-E17FEEEEAFFB}"/>
     <hyperlink ref="A10" r:id="rId9" tooltip="Campo Limpo (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/Campo_Limpo_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{4162C385-55B8-4BA5-9EE2-CBDC92ACB79F}"/>
     <hyperlink ref="A11" r:id="rId10" tooltip="Jabaquara (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/Jabaquara_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{06BA0341-07EB-45E4-96E9-AE4EC0E4E9D4}"/>
-    <hyperlink ref="A12" r:id="rId11" tooltip="Jaraguá (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/Jaragu%C3%A1_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{5E1D7C02-7A99-4089-8853-5825CFE674D9}"/>
+    <hyperlink ref="A75" r:id="rId11" tooltip="Jaraguá (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/Jaragu%C3%A1_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{5E1D7C02-7A99-4089-8853-5825CFE674D9}"/>
     <hyperlink ref="A13" r:id="rId12" tooltip="Itaquera" display="https://pt.wikipedia.org/wiki/Itaquera" xr:uid="{2F103531-D788-40B6-B589-E847533CC9CB}"/>
     <hyperlink ref="A14" r:id="rId13" tooltip="Itaim Paulista" display="https://pt.wikipedia.org/wiki/Itaim_Paulista" xr:uid="{041E5545-1216-4C80-A185-99CA9B050AE0}"/>
-    <hyperlink ref="A15" r:id="rId14" tooltip="Tremembé (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/Trememb%C3%A9_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{4113686F-AC92-4364-B595-8EACA92D41BE}"/>
+    <hyperlink ref="A78" r:id="rId14" tooltip="Tremembé (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/Trememb%C3%A9_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{4113686F-AC92-4364-B595-8EACA92D41BE}"/>
     <hyperlink ref="A16" r:id="rId15" tooltip="Cidade Tiradentes" display="https://pt.wikipedia.org/wiki/Cidade_Tiradentes" xr:uid="{46392E2A-D3E0-41D2-AF77-B0F1B633A085}"/>
     <hyperlink ref="A17" r:id="rId16" tooltip="Cidade Dutra" display="https://pt.wikipedia.org/wiki/Cidade_Dutra" xr:uid="{EC247679-4000-4FC0-89E7-83471562C91C}"/>
     <hyperlink ref="A18" r:id="rId17" tooltip="Pirituba" display="https://pt.wikipedia.org/wiki/Pirituba" xr:uid="{8C7E8DB0-57D8-48EB-9635-800AC632854D}"/>
@@ -1867,8 +1873,8 @@
     <hyperlink ref="A23" r:id="rId22" tooltip="Parelheiros" display="https://pt.wikipedia.org/wiki/Parelheiros" xr:uid="{0F87E594-04A2-4E5E-ACB8-22BC0DCE18DE}"/>
     <hyperlink ref="A24" r:id="rId23" tooltip="Iguatemi (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/Iguatemi_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{5329CD20-95F4-4618-9E87-481A14831EA5}"/>
     <hyperlink ref="A25" r:id="rId24" tooltip="São Rafael (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/S%C3%A3o_Rafael_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{57BEBB92-F17A-47F9-A1CA-5C6F4FA4612E}"/>
-    <hyperlink ref="A26" r:id="rId25" tooltip="Cachoeirinha (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/Cachoeirinha_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{5D4C106B-E26B-4FF7-B601-AF82E8F816CF}"/>
-    <hyperlink ref="A27" r:id="rId26" tooltip="Cangaíba" display="https://pt.wikipedia.org/wiki/Canga%C3%ADba" xr:uid="{3BFA28E8-384C-452E-96EC-9767FD2649E8}"/>
+    <hyperlink ref="A74" r:id="rId25" tooltip="Cachoeirinha (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/Cachoeirinha_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{5D4C106B-E26B-4FF7-B601-AF82E8F816CF}"/>
+    <hyperlink ref="A26" r:id="rId26" tooltip="Cangaíba" display="https://pt.wikipedia.org/wiki/Canga%C3%ADba" xr:uid="{3BFA28E8-384C-452E-96EC-9767FD2649E8}"/>
     <hyperlink ref="A28" r:id="rId27" tooltip="Vila Curuçá" display="https://pt.wikipedia.org/wiki/Vila_Curu%C3%A7%C3%A1" xr:uid="{E9729305-BC94-40BA-9CB0-0C20EBE11EBB}"/>
     <hyperlink ref="A29" r:id="rId28" tooltip="São Lucas (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/S%C3%A3o_Lucas_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{F42E35EB-FDDB-4348-A92B-35EBD6738B4E}"/>
     <hyperlink ref="A30" r:id="rId29" tooltip="Freguesia do Ó" display="https://pt.wikipedia.org/wiki/Freguesia_do_%C3%93" xr:uid="{0E25E8A3-FF43-48B9-9B70-D1F5D80BBF0A}"/>
@@ -1888,7 +1894,7 @@
     <hyperlink ref="A44" r:id="rId43" tooltip="Vila Medeiros" display="https://pt.wikipedia.org/wiki/Vila_Medeiros" xr:uid="{5560D90D-015E-40BA-B78A-2A4630A27702}"/>
     <hyperlink ref="A45" r:id="rId44" tooltip="Ermelino Matarazzo (distrito)" display="https://pt.wikipedia.org/wiki/Ermelino_Matarazzo_(distrito)" xr:uid="{62F3FAEF-F7D2-4ADA-9B24-3C608977EE0C}"/>
     <hyperlink ref="A46" r:id="rId45" tooltip="Guaianases" display="https://pt.wikipedia.org/wiki/Guaianases" xr:uid="{5FFA8919-ABCD-43EA-A6BB-BCAE1A09C659}"/>
-    <hyperlink ref="A47" r:id="rId46" tooltip="Vila Maria (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/Vila_Maria_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{389DEEDF-B300-410A-BB11-5F0B0E452C41}"/>
+    <hyperlink ref="A76" r:id="rId46" tooltip="Vila Maria (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/Vila_Maria_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{389DEEDF-B300-410A-BB11-5F0B0E452C41}"/>
     <hyperlink ref="A48" r:id="rId47" tooltip="Vila Prudente" display="https://pt.wikipedia.org/wiki/Vila_Prudente" xr:uid="{7EE33D93-B493-4B4C-AD99-F83253535B83}"/>
     <hyperlink ref="A49" r:id="rId48" tooltip="Mandaqui" display="https://pt.wikipedia.org/wiki/Mandaqui" xr:uid="{BEF54B19-74A8-4C03-9E48-6B979AFF78A5}"/>
     <hyperlink ref="A50" r:id="rId49" tooltip="Vila Matilde" display="https://pt.wikipedia.org/wiki/Vila_Matilde" xr:uid="{A47CDAA8-D18B-487F-A337-9A04A8577754}"/>
@@ -1902,42 +1908,42 @@
     <hyperlink ref="A58" r:id="rId57" tooltip="Ponte Rasa" display="https://pt.wikipedia.org/wiki/Ponte_Rasa" xr:uid="{78494D53-85EE-4E6A-A914-388D49110B82}"/>
     <hyperlink ref="A59" r:id="rId58" tooltip="Aricanduva (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/Aricanduva_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{5C09B714-BDCB-4665-93EC-094228DEF2AA}"/>
     <hyperlink ref="A60" r:id="rId59" tooltip="São Domingos (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/S%C3%A3o_Domingos_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{E515A286-F78B-4BCE-B556-3F9DAE24E4C7}"/>
-    <hyperlink ref="A61" r:id="rId60" tooltip="Perus" display="https://pt.wikipedia.org/wiki/Perus" xr:uid="{D08FFB72-392C-452C-9823-F540601B9AA8}"/>
-    <hyperlink ref="A62" r:id="rId61" tooltip="Jaçanã (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/Ja%C3%A7an%C3%A3_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{A7A52B9F-4708-4486-9D5F-F840C7F45928}"/>
+    <hyperlink ref="A81" r:id="rId60" tooltip="Perus" display="https://pt.wikipedia.org/wiki/Perus" xr:uid="{D08FFB72-392C-452C-9823-F540601B9AA8}"/>
+    <hyperlink ref="A82" r:id="rId61" tooltip="Jaçanã (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/Ja%C3%A7an%C3%A3_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{A7A52B9F-4708-4486-9D5F-F840C7F45928}"/>
     <hyperlink ref="A63" r:id="rId62" tooltip="Água Rasa" display="https://pt.wikipedia.org/wiki/%C3%81gua_Rasa" xr:uid="{4E155ECE-B6CB-4AD6-9735-7AC7888A7723}"/>
-    <hyperlink ref="A64" r:id="rId63" tooltip="Santo Amaro (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/Santo_Amaro_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{DD0C84E4-A87A-4A7F-B8C9-941F3A1F2999}"/>
+    <hyperlink ref="A96" r:id="rId63" tooltip="Santo Amaro (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/Santo_Amaro_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{DD0C84E4-A87A-4A7F-B8C9-941F3A1F2999}"/>
     <hyperlink ref="A65" r:id="rId64" tooltip="Carrão" display="https://pt.wikipedia.org/wiki/Carr%C3%A3o" xr:uid="{7A40A451-DE50-4ED4-8AF5-75F77902853E}"/>
     <hyperlink ref="A66" r:id="rId65" tooltip="Limão (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/Lim%C3%A3o_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{D01DBDAF-6BA2-47B4-B67F-DEE123BC017D}"/>
     <hyperlink ref="A67" r:id="rId66" tooltip="Moema (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/Moema_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{62C45E33-97C0-4994-9767-F2DA70435B23}"/>
-    <hyperlink ref="A68" r:id="rId67" tooltip="Jardim Paulista (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/Jardim_Paulista_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{F42C851D-5938-41A0-84D5-B48C2797B680}"/>
-    <hyperlink ref="A69" r:id="rId68" tooltip="São Miguel Paulista" display="https://pt.wikipedia.org/wiki/S%C3%A3o_Miguel_Paulista" xr:uid="{B763289D-B814-4B18-9EAF-7F0DE3580AE8}"/>
+    <hyperlink ref="A83" r:id="rId67" tooltip="Jardim Paulista (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/Jardim_Paulista_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{F42C851D-5938-41A0-84D5-B48C2797B680}"/>
+    <hyperlink ref="A27" r:id="rId68" tooltip="São Miguel Paulista" display="https://pt.wikipedia.org/wiki/S%C3%A3o_Miguel_Paulista" xr:uid="{B763289D-B814-4B18-9EAF-7F0DE3580AE8}"/>
     <hyperlink ref="A70" r:id="rId69" tooltip="Santa Cecília (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/Santa_Cec%C3%ADlia_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{B8B14C3A-BD96-460E-9141-B3CFA60C7F84}"/>
-    <hyperlink ref="A71" r:id="rId70" tooltip="Mooca" display="https://pt.wikipedia.org/wiki/Mooca" xr:uid="{DBE4C326-EF79-4505-A44F-E731E6039F21}"/>
+    <hyperlink ref="A47" r:id="rId70" tooltip="Mooca" display="https://pt.wikipedia.org/wiki/Mooca" xr:uid="{DBE4C326-EF79-4505-A44F-E731E6039F21}"/>
     <hyperlink ref="A72" r:id="rId71" tooltip="Casa Verde (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/Casa_Verde_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{4830BC69-D989-4819-9D6A-896BFCF70308}"/>
     <hyperlink ref="A73" r:id="rId72" tooltip="Lapa (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/Lapa_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{73FAFFA1-7966-4BAD-B1B8-E77F330F5DA0}"/>
-    <hyperlink ref="A74" r:id="rId73" tooltip="Anhanguera (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/Anhanguera_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{663C691E-94CA-4F47-8389-93720ED6074D}"/>
-    <hyperlink ref="A75" r:id="rId74" tooltip="Parque do Carmo (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/Parque_do_Carmo_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{713172D8-9C6E-49CC-B33E-F0E61328AA6E}"/>
-    <hyperlink ref="A76" r:id="rId75" tooltip="Campo Belo (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/Campo_Belo_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{81298906-71AE-4B1C-B5DA-4DB76EF670CA}"/>
+    <hyperlink ref="A79" r:id="rId73" tooltip="Anhanguera (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/Anhanguera_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{663C691E-94CA-4F47-8389-93720ED6074D}"/>
+    <hyperlink ref="A61" r:id="rId74" tooltip="Parque do Carmo (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/Parque_do_Carmo_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{713172D8-9C6E-49CC-B33E-F0E61328AA6E}"/>
+    <hyperlink ref="A93" r:id="rId75" tooltip="Campo Belo (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/Campo_Belo_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{81298906-71AE-4B1C-B5DA-4DB76EF670CA}"/>
     <hyperlink ref="A77" r:id="rId76" tooltip="Liberdade (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/Liberdade_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{6E52C053-874C-48AC-9B4A-F5411DE9D70D}"/>
-    <hyperlink ref="A78" r:id="rId77" tooltip="Pinheiros (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/Pinheiros_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{9A4115C6-3E22-403A-A79D-1237CC6DC3D7}"/>
-    <hyperlink ref="A79" r:id="rId78" tooltip="República (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/Rep%C3%BAblica_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{F1318C12-A623-4C4F-902C-089CB57C7597}"/>
+    <hyperlink ref="A85" r:id="rId77" tooltip="Pinheiros (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/Pinheiros_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{9A4115C6-3E22-403A-A79D-1237CC6DC3D7}"/>
+    <hyperlink ref="A62" r:id="rId78" tooltip="República (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/Rep%C3%BAblica_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{F1318C12-A623-4C4F-902C-089CB57C7597}"/>
     <hyperlink ref="A80" r:id="rId79" tooltip="Bela Vista (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/Bela_Vista_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{215FA9ED-4732-45E3-B825-8D4D49FD9CC3}"/>
-    <hyperlink ref="A81" r:id="rId80" tooltip="Belém (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/Bel%C3%A9m_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{8A9B73E2-8254-4C20-8B59-0A689A8B0E1E}"/>
-    <hyperlink ref="A82" r:id="rId81" tooltip="Jaguaré (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/Jaguar%C3%A9_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{57ACE6D4-C7CA-465F-AF64-F9F68BD01917}"/>
-    <hyperlink ref="A83" r:id="rId82" tooltip="Consolação (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/Consola%C3%A7%C3%A3o_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{FE29F540-0903-4CE4-92B9-9A466E1A2DF4}"/>
+    <hyperlink ref="A68" r:id="rId80" tooltip="Belém (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/Bel%C3%A9m_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{8A9B73E2-8254-4C20-8B59-0A689A8B0E1E}"/>
+    <hyperlink ref="A86" r:id="rId81" tooltip="Jaguaré (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/Jaguar%C3%A9_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{57ACE6D4-C7CA-465F-AF64-F9F68BD01917}"/>
+    <hyperlink ref="A64" r:id="rId82" tooltip="Consolação (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/Consola%C3%A7%C3%A3o_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{FE29F540-0903-4CE4-92B9-9A466E1A2DF4}"/>
     <hyperlink ref="A84" r:id="rId83" tooltip="Vila Guilherme" display="https://pt.wikipedia.org/wiki/Vila_Guilherme" xr:uid="{3A62B8A8-6BA6-4C60-91CF-F72DE4A1987E}"/>
-    <hyperlink ref="A85" r:id="rId84" tooltip="Butantã" display="https://pt.wikipedia.org/wiki/Butant%C3%A3" xr:uid="{EB609EB0-7573-4E89-8FD1-4B85A4F53968}"/>
-    <hyperlink ref="A86" r:id="rId85" tooltip="Vila Leopoldina" display="https://pt.wikipedia.org/wiki/Vila_Leopoldina" xr:uid="{EAE4E2E5-50B4-4C35-9BDE-DDD99116E92C}"/>
+    <hyperlink ref="A90" r:id="rId84" tooltip="Butantã" display="https://pt.wikipedia.org/wiki/Butant%C3%A3" xr:uid="{EB609EB0-7573-4E89-8FD1-4B85A4F53968}"/>
+    <hyperlink ref="A88" r:id="rId85" tooltip="Vila Leopoldina" display="https://pt.wikipedia.org/wiki/Vila_Leopoldina" xr:uid="{EAE4E2E5-50B4-4C35-9BDE-DDD99116E92C}"/>
     <hyperlink ref="A87" r:id="rId86" tooltip="Cambuci (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/Cambuci_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{2CFE00C5-AC24-4055-A0AE-71403ABDBBAA}"/>
-    <hyperlink ref="A88" r:id="rId87" tooltip="Morumbi (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/Morumbi_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{D8F428DE-388E-4C56-AAB1-53ED7EADADEE}"/>
-    <hyperlink ref="A89" r:id="rId88" tooltip="Brás (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/Br%C3%A1s_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{BAF924B1-65BB-4F67-B21A-C0659AB69336}"/>
-    <hyperlink ref="A90" r:id="rId89" tooltip="Socorro (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/Socorro_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{DD4471E3-AD5F-429C-B4C0-3EA2C26A9708}"/>
+    <hyperlink ref="A89" r:id="rId87" tooltip="Morumbi (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/Morumbi_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{D8F428DE-388E-4C56-AAB1-53ED7EADADEE}"/>
+    <hyperlink ref="A71" r:id="rId88" tooltip="Brás (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/Br%C3%A1s_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{BAF924B1-65BB-4F67-B21A-C0659AB69336}"/>
+    <hyperlink ref="A95" r:id="rId89" tooltip="Socorro (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/Socorro_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{DD4471E3-AD5F-429C-B4C0-3EA2C26A9708}"/>
     <hyperlink ref="A91" r:id="rId90" tooltip="Alto de Pinheiros" display="https://pt.wikipedia.org/wiki/Alto_de_Pinheiros" xr:uid="{C45E5AB6-273F-46D6-BAB2-F3ACCA2519BF}"/>
-    <hyperlink ref="A92" r:id="rId91" tooltip="Bom Retiro (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/Bom_Retiro_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{008D9A2E-6C00-422F-A02A-D4DD5A7CE6B7}"/>
-    <hyperlink ref="A93" r:id="rId92" tooltip="Barra Funda (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/Barra_Funda_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{D2C49F49-FBDA-45E1-8D70-582E77A0DAFC}"/>
+    <hyperlink ref="A12" r:id="rId91" tooltip="Bom Retiro (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/Bom_Retiro_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{008D9A2E-6C00-422F-A02A-D4DD5A7CE6B7}"/>
+    <hyperlink ref="A92" r:id="rId92" tooltip="Barra Funda (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/Barra_Funda_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{D2C49F49-FBDA-45E1-8D70-582E77A0DAFC}"/>
     <hyperlink ref="A94" r:id="rId93" tooltip="Jaguara" display="https://pt.wikipedia.org/wiki/Jaguara" xr:uid="{4779AF34-DCE4-4AB9-951B-908967DFC1BB}"/>
-    <hyperlink ref="A95" r:id="rId94" tooltip="Sé (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/S%C3%A9_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{D42301E0-2F66-4B68-A1E4-14F7666A6DD5}"/>
-    <hyperlink ref="A96" r:id="rId95" tooltip="Pari" display="https://pt.wikipedia.org/wiki/Pari" xr:uid="{70E4ED97-4846-4C91-8FE9-AF407D062A72}"/>
+    <hyperlink ref="A15" r:id="rId94" tooltip="Sé (distrito de São Paulo)" display="https://pt.wikipedia.org/wiki/S%C3%A9_(distrito_de_S%C3%A3o_Paulo)" xr:uid="{D42301E0-2F66-4B68-A1E4-14F7666A6DD5}"/>
+    <hyperlink ref="A69" r:id="rId95" tooltip="Pari" display="https://pt.wikipedia.org/wiki/Pari" xr:uid="{70E4ED97-4846-4C91-8FE9-AF407D062A72}"/>
     <hyperlink ref="A97" r:id="rId96" tooltip="Marsilac" display="https://pt.wikipedia.org/wiki/Marsilac" xr:uid="{4C03600F-8BA5-4BCD-A338-52B127BE11EC}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
